--- a/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC2.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC2.1_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2640845148489273</v>
+        <v>0.2925655275071551</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2640845148489273, 'ngram_match_score': 0.09371188840539432, 'weighted_ngram_match_score': 0.1314869304839858, 'syntax_match_score': 0.54, 'dataflow_match_score': 0.2911392405063291}</t>
+          <t>{'codebleu': 0.29256552750715514, 'ngram_match_score': 0.09371188840539432, 'weighted_ngram_match_score': 0.1314869304839858, 'syntax_match_score': 0.54, 'dataflow_match_score': 0.4050632911392405}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC2.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC2.1_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2925655275071551</v>
+        <v>0.260919957886902</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.29256552750715514, 'ngram_match_score': 0.09371188840539432, 'weighted_ngram_match_score': 0.1314869304839858, 'syntax_match_score': 0.54, 'dataflow_match_score': 0.4050632911392405}</t>
+          <t>{'codebleu': 0.260919957886902, 'ngram_match_score': 0.09371188840539432, 'weighted_ngram_match_score': 0.1314869304839858, 'syntax_match_score': 0.54, 'dataflow_match_score': 0.27848101265822783}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
